--- a/testcase/OpenERP_Testcase.xlsx
+++ b/testcase/OpenERP_Testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12420" windowHeight="5250"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13545" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A16:D41"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Text</t>
   </si>
@@ -330,6 +331,10 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Verify that ISMS Helpdesk is displayed correctly</t>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -789,6 +794,24 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -829,24 +852,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1145,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1231,81 +1236,81 @@
       <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="42"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="42"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="15.75">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="1:9" s="31" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="61" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="43" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="32"/>
@@ -1314,19 +1319,19 @@
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" s="31" customFormat="1" ht="105" outlineLevel="2">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="46" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="33"/>
@@ -1335,19 +1340,19 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" s="31" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="46" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="33"/>
@@ -1415,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1501,64 +1506,64 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="42"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="42"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="15.75">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -1592,7 +1597,7 @@
       <c r="B14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="59" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -1613,7 +1618,7 @@
       <c r="B15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="33" t="s">
         <v>40</v>
       </c>
@@ -1632,7 +1637,7 @@
       <c r="B16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="33" t="s">
         <v>42</v>
       </c>
@@ -1780,64 +1785,64 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="42"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="42"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="15.75">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -1850,7 +1855,7 @@
       <c r="B13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="59" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="30" t="s">
@@ -1871,7 +1876,7 @@
       <c r="B14" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="30" t="s">
         <v>45</v>
       </c>
@@ -1890,7 +1895,7 @@
       <c r="B15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="30" t="s">
         <v>48</v>
       </c>
